--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440621.5385695739</v>
+        <v>437339.8706939355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514374</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7383832473596</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V14" t="n">
-        <v>9.234466016111835</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1695,10 +1695,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1707,7 +1707,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>89.36434653028495</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="18">
@@ -1920,16 +1920,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.9845033927267</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>49.74762136843327</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,46 +2257,46 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>18.617696580776</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>69.03881051849277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,26 +2789,26 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>106.0644964958682</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>65.28337874243276</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,31 +3263,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>20.8888551418663</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,73 +3737,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H44" t="n">
-        <v>114.9581870864144</v>
-      </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>29.89893342618437</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>53.36172263168805</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
         <v>712.019119383956</v>
@@ -4480,10 +4480,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4978,10 +4978,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>587.3248651012614</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>587.3248651012614</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>587.3248651012614</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y11" t="n">
-        <v>587.3248651012614</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5121,40 +5121,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>125.0774898247174</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
         <v>19.28114311021272</v>
@@ -5215,10 +5215,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5303,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>705.5748017933107</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>531.1217725121837</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5400,7 +5400,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>873.7901388133787</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5458,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>109.5807722530562</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>109.5807722530562</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5695,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>159.8308948474333</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,10 +5832,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
         <v>473.4149733950735</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6026,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>346.2587618989155</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>346.2587618989155</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>197.3243522376642</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>38.08689723220868</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>38.08689723220868</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>38.08689723220868</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6075,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.2587618989155</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6163,10 +6163,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C26" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D26" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E26" t="n">
-        <v>315.6850394389064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4964801302808</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6403,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,19 +6491,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
         <v>749.627473042513</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>613.4725238202047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6658,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C32" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D32" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.6929175551172</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C33" t="n">
-        <v>380.6929175551172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>231.7585078938659</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>231.7585078938659</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>85.22394992075087</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y33" t="n">
-        <v>380.6929175551172</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3492772117056</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>179.1118222062501</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W36" t="n">
-        <v>55.04605772994853</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7254,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7293,10 +7293,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7445,16 +7445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
         <v>19.28114311021272</v>
@@ -7606,13 +7606,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>591.4512093066566</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C44" t="n">
-        <v>591.4512093066566</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D44" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>591.4512093066566</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>591.4512093066566</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X44" t="n">
-        <v>591.4512093066566</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y44" t="n">
-        <v>591.4512093066566</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.48208596494442</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C45" t="n">
-        <v>49.48208596494442</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D45" t="n">
-        <v>49.48208596494442</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E45" t="n">
-        <v>49.48208596494442</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>425.5489231905453</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>425.5489231905453</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>217.6974229850125</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>217.6974229850125</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7828,28 +7828,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22547,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,31 +22826,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>182.4696517789847</v>
       </c>
       <c r="H11" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>146.95659991356</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>318.5177924540231</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23583,10 +23583,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>116.3183492470194</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23750,10 +23750,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,31 +23774,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="18">
@@ -23808,16 +23808,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>84.81608375669853</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,10 +24014,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,10 +24054,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>95.32159102495061</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24066,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24145,7 +24145,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,10 +24206,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24221,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,10 +24288,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24300,7 +24300,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>93.61774765572046</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24452,13 +24452,13 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>354.4504772539638</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>136.7341746849847</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24652,13 +24652,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>66.64400249244758</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,19 +24810,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>72.06013842077788</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25044,10 +25044,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,10 +25056,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,31 +25151,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>312.84732328326</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,16 +25236,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>124.1803572515176</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25406,7 +25406,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>237.1365750230782</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25685,13 +25685,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25716,7 +25716,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>95.01151712483079</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>224.5166150293527</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25922,10 +25922,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25953,19 +25953,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>115.1702789671995</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>83.98179453152258</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,7 +26004,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26314,19 @@
         <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26347,7 +26347,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37568.72254537859</v>
+        <v>-37960.95279092417</v>
       </c>
       <c r="C6" t="n">
-        <v>43200.7089861691</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="D6" t="n">
-        <v>43200.70898616911</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="E6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="F6" t="n">
-        <v>76828.30898616911</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="G6" t="n">
-        <v>76828.3089861691</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="I6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="J6" t="n">
-        <v>13768.36638706284</v>
+        <v>13376.13614151729</v>
       </c>
       <c r="K6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062349</v>
       </c>
       <c r="L6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="M6" t="n">
-        <v>76828.30898616907</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="N6" t="n">
-        <v>76828.30898616911</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="O6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="P6" t="n">
-        <v>76828.30898616908</v>
+        <v>76436.0787406235</v>
       </c>
     </row>
   </sheetData>
@@ -34784,10 +34784,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,10 +35024,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939355</v>
+        <v>439044.6267082024</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5669319.084475419</v>
+        <v>5669319.084475418</v>
       </c>
     </row>
     <row r="11">
@@ -659,67 +661,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -938,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>84.41978777916125</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>117.8074216906837</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>151.4741327147726</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1230,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1272,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.223928343718128</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.36434653028495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,10 +1931,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>37.18582309281558</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="19">
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,17 +2080,17 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2123,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>49.74762136843327</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>8.487814385594598</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,10 +2636,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>115.5785074418532</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>76.79360427493793</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2801,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>131.3980055647953</v>
       </c>
       <c r="T30" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3038,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>116.325098768111</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>83.55470617651451</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,14 +3265,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3284,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3351,22 +3353,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>20.8888551418663</v>
+        <v>76.31310133574092</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3500,11 +3502,11 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
@@ -3515,58 +3517,58 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>108.3187922757506</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,13 +3641,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3682,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3737,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>68.31015748716329</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3901,58 +3903,58 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>53.36172263168805</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
     </row>
     <row r="46">
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="4">
@@ -4480,7 +4482,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4586,28 +4588,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
         <v>19.28114311021272</v>
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>845.059759863481</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4683,13 +4685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>845.059759863481</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>845.059759863481</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>845.059759863481</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4920,13 +4922,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X11" t="n">
-        <v>710.516763498309</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y11" t="n">
-        <v>710.516763498309</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>705.5748017933107</v>
+        <v>728.5366399301382</v>
       </c>
       <c r="C15" t="n">
-        <v>531.1217725121837</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="D15" t="n">
-        <v>382.1873628509324</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E15" t="n">
-        <v>222.9499078454769</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F15" t="n">
-        <v>222.9499078454769</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H15" t="n">
         <v>109.5807722530562</v>
@@ -5361,46 +5363,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>956.7602581937492</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>956.7602581937492</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>956.7602581937492</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.5366399301382</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.5366399301382</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.5366399301382</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.5366399301382</v>
       </c>
       <c r="Y15" t="n">
-        <v>873.7901388133787</v>
+        <v>728.5366399301382</v>
       </c>
     </row>
     <row r="16">
@@ -5452,10 +5454,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>380.2300195200815</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C18" t="n">
-        <v>205.7769902389545</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D18" t="n">
-        <v>56.84258057770322</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5595,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
         <v>964.0571555106362</v>
@@ -5634,10 +5636,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>548.4453565401495</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5697,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>319.0683498528888</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C21" t="n">
-        <v>319.0683498528888</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>159.8308948474333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>955.4836056261972</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>782.0662610768661</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>579.8796664356321</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>336.430889791532</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6163,22 +6165,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>953.9655401424092</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>953.9655401424092</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>953.9655401424092</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>710.516763498309</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>136.7812428759814</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6412,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6499,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>831.3318973643784</v>
       </c>
       <c r="T30" t="n">
-        <v>933.9571464551993</v>
+        <v>831.3318973643784</v>
       </c>
       <c r="U30" t="n">
-        <v>705.7335281915883</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>509.4769954460863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y32" t="n">
-        <v>752.9257720901863</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>136.7812428759814</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>355.7797972276083</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.9965798960495</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D36" t="n">
-        <v>338.3492772117056</v>
+        <v>439.5188066588198</v>
       </c>
       <c r="E36" t="n">
-        <v>179.1118222062501</v>
+        <v>439.5188066588198</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y36" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>219.7478263964992</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>219.7478263964992</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>219.7478263964992</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>219.7478263964992</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>193.7341723913397</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="40">
@@ -7315,19 +7317,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,7 +7499,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>895.0569964326935</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>895.0569964326935</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>895.0569964326935</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>895.0569964326935</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>895.0569964326935</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>895.0569964326935</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>895.0569964326935</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7602,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V44" t="n">
-        <v>569.2254314512334</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W44" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X44" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>325.7766548071333</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y45" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7792,13 +7794,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8780,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,7 +9257,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10197,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,10 +10913,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11145,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22564,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,25 +22591,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>140.4886632986673</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22720,10 +22722,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22826,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>264.8211809382518</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22872,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22923,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>133.8875614702359</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23036,10 +23038,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23075,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23102,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>21.23436627354315</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23160,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23224,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>182.4696517789847</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23309,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23326,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>126.6730335290854</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>92.933905808925</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.3183492470194</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>313.921378732166</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23817,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>120.4592573625854</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>95.32159102495061</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>91.67001976704853</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>11.08759722861041</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>339.503732545394</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,10 +24524,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>57.12999154646258</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>128.8890915023664</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>40.28516553904257</v>
       </c>
       <c r="T30" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24880,10 +24882,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24926,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>61.51450621686936</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25117,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25205,19 +25207,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>149.5179749360441</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25239,22 +25241,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>124.1803572515176</v>
+        <v>68.75611105764295</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2218967649542</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25354,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>29.02472488746</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>142.9094900234331</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25555,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>105.593260554236</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25570,7 +25572,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>142.3976559772408</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,13 +25645,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>103.3730136166745</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>83.98179453152258</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>71.01512708784537</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="C2" t="n">
         <v>108004.4371453661</v>
       </c>
-      <c r="C2" t="n">
-        <v>108004.437145366</v>
-      </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26332,7 +26334,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26347,7 +26349,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092417</v>
+        <v>-37960.95279092422</v>
       </c>
       <c r="C6" t="n">
-        <v>42808.47874062353</v>
+        <v>42808.47874062356</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062353</v>
+        <v>42808.47874062359</v>
       </c>
       <c r="E6" t="n">
         <v>76436.07874062353</v>
       </c>
       <c r="F6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="G6" t="n">
+        <v>76436.07874062353</v>
+      </c>
+      <c r="H6" t="n">
+        <v>76436.07874062353</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76436.07874062356</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13376.1361415173</v>
+      </c>
+      <c r="K6" t="n">
         <v>76436.07874062352</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76436.07874062352</v>
-      </c>
-      <c r="I6" t="n">
-        <v>76436.07874062353</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13376.13614151729</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76436.07874062349</v>
       </c>
       <c r="L6" t="n">
         <v>76436.07874062353</v>
       </c>
       <c r="M6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="N6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="O6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
         <v>76436.0787406235</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,16 +35500,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,7 +35977,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,10 +37633,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37865,10 +37867,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
